--- a/test_output/financial_projection_saas_startup_20251104.xlsx
+++ b/test_output/financial_projection_saas_startup_20251104.xlsx
@@ -30,6 +30,18 @@
     <definedName name="GAPercent">'Assumptions'!$B$18</definedName>
     <definedName name="TaxRate">'Assumptions'!$B$21</definedName>
     <definedName name="DiscountRate">'Assumptions'!$B$22</definedName>
+    <definedName name="Rev_Segment1_Y0">'Revenue_Buildup'!$B$5</definedName>
+    <definedName name="Rev_Segment2_Y0">'Revenue_Buildup'!$B$6</definedName>
+    <definedName name="Rev_Segment1_Y1">'Revenue_Buildup'!$C$5</definedName>
+    <definedName name="Rev_Segment2_Y1">'Revenue_Buildup'!$C$6</definedName>
+    <definedName name="Rev_Segment1_Y2">'Revenue_Buildup'!$D$5</definedName>
+    <definedName name="Rev_Segment2_Y2">'Revenue_Buildup'!$D$6</definedName>
+    <definedName name="Rev_Segment1_Y3">'Revenue_Buildup'!$E$5</definedName>
+    <definedName name="Rev_Segment2_Y3">'Revenue_Buildup'!$E$6</definedName>
+    <definedName name="Rev_Segment1_Y4">'Revenue_Buildup'!$F$5</definedName>
+    <definedName name="Rev_Segment2_Y4">'Revenue_Buildup'!$F$6</definedName>
+    <definedName name="Rev_Segment1_Y5">'Revenue_Buildup'!$G$5</definedName>
+    <definedName name="Rev_Segment2_Y5">'Revenue_Buildup'!$G$6</definedName>
     <definedName name="Revenue_Y0">'Revenue_Buildup'!$B$7</definedName>
     <definedName name="Revenue_Y1">'Revenue_Buildup'!$C$7</definedName>
     <definedName name="Revenue_Y2">'Revenue_Buildup'!$D$7</definedName>
@@ -42,6 +54,24 @@
     <definedName name="COGS_Y3">'Cost_Structure'!$F$6</definedName>
     <definedName name="COGS_Y4">'Cost_Structure'!$G$6</definedName>
     <definedName name="COGS_Y5">'Cost_Structure'!$H$6</definedName>
+    <definedName name="OPEX_SM_Y0">'Cost_Structure'!$B$10</definedName>
+    <definedName name="OPEX_RD_Y0">'Cost_Structure'!$B$11</definedName>
+    <definedName name="OPEX_GA_Y0">'Cost_Structure'!$B$12</definedName>
+    <definedName name="OPEX_SM_Y1">'Cost_Structure'!$C$10</definedName>
+    <definedName name="OPEX_RD_Y1">'Cost_Structure'!$C$11</definedName>
+    <definedName name="OPEX_GA_Y1">'Cost_Structure'!$C$12</definedName>
+    <definedName name="OPEX_SM_Y2">'Cost_Structure'!$D$10</definedName>
+    <definedName name="OPEX_RD_Y2">'Cost_Structure'!$D$11</definedName>
+    <definedName name="OPEX_GA_Y2">'Cost_Structure'!$D$12</definedName>
+    <definedName name="OPEX_SM_Y3">'Cost_Structure'!$E$10</definedName>
+    <definedName name="OPEX_RD_Y3">'Cost_Structure'!$E$11</definedName>
+    <definedName name="OPEX_GA_Y3">'Cost_Structure'!$E$12</definedName>
+    <definedName name="OPEX_SM_Y4">'Cost_Structure'!$F$10</definedName>
+    <definedName name="OPEX_RD_Y4">'Cost_Structure'!$F$11</definedName>
+    <definedName name="OPEX_GA_Y4">'Cost_Structure'!$F$12</definedName>
+    <definedName name="OPEX_SM_Y5">'Cost_Structure'!$G$10</definedName>
+    <definedName name="OPEX_RD_Y5">'Cost_Structure'!$G$11</definedName>
+    <definedName name="OPEX_GA_Y5">'Cost_Structure'!$G$12</definedName>
     <definedName name="OPEX_Y0">'Cost_Structure'!$B$13</definedName>
     <definedName name="OPEX_Y1">'Cost_Structure'!$C$13</definedName>
     <definedName name="OPEX_Y2">'Cost_Structure'!$D$13</definedName>
@@ -66,6 +96,11 @@
     <definedName name="NetIncome_Y3">'PL_5Year'!$E$21</definedName>
     <definedName name="NetIncome_Y4">'PL_5Year'!$F$21</definedName>
     <definedName name="NetIncome_Y5">'PL_5Year'!$G$21</definedName>
+    <definedName name="DCF_PV_Y1">'DCF_Valuation'!$C$9</definedName>
+    <definedName name="DCF_PV_Y2">'DCF_Valuation'!$C$10</definedName>
+    <definedName name="DCF_PV_Y3">'DCF_Valuation'!$C$11</definedName>
+    <definedName name="DCF_PV_Y4">'DCF_Valuation'!$C$12</definedName>
+    <definedName name="DCF_PV_Y5">'DCF_Valuation'!$C$13</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
 </workbook>
@@ -1412,7 +1447,7 @@
         </is>
       </c>
       <c r="C14" s="47">
-        <f>SUM(C9:C13)</f>
+        <f>SUM(DCF_PV_Y1,DCF_PV_Y2,DCF_PV_Y3,DCF_PV_Y4,DCF_PV_Y5)</f>
         <v/>
       </c>
     </row>
@@ -1463,7 +1498,7 @@
         </is>
       </c>
       <c r="B21" s="48">
-        <f>C15+B19</f>
+        <f>C14+B19</f>
         <v/>
       </c>
       <c r="C21" t="inlineStr">
@@ -1955,7 +1990,11 @@
         <f>E5*(1+$H$5)</f>
         <v/>
       </c>
-      <c r="G5" s="19" t="n">
+      <c r="G5" s="8">
+        <f>F5*(1+$H$5)</f>
+        <v/>
+      </c>
+      <c r="H5" s="19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1984,7 +2023,11 @@
         <f>E6*(1+$H$6)</f>
         <v/>
       </c>
-      <c r="G6" s="19" t="n">
+      <c r="G6" s="8">
+        <f>F6*(1+$H$6)</f>
+        <v/>
+      </c>
+      <c r="H6" s="19" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -1995,27 +2038,27 @@
         </is>
       </c>
       <c r="B7" s="23">
-        <f>SUM(B5:B6)</f>
+        <f>SUM(Rev_Segment1_Y0,Rev_Segment2_Y0)</f>
         <v/>
       </c>
       <c r="C7" s="23">
-        <f>SUM(C5:C6)</f>
+        <f>SUM(Rev_Segment1_Y1,Rev_Segment2_Y1)</f>
         <v/>
       </c>
       <c r="D7" s="23">
-        <f>SUM(D5:D6)</f>
+        <f>SUM(Rev_Segment1_Y2,Rev_Segment2_Y2)</f>
         <v/>
       </c>
       <c r="E7" s="23">
-        <f>SUM(E5:E6)</f>
+        <f>SUM(Rev_Segment1_Y3,Rev_Segment2_Y3)</f>
         <v/>
       </c>
       <c r="F7" s="23">
-        <f>SUM(F5:F6)</f>
+        <f>SUM(Rev_Segment1_Y4,Rev_Segment2_Y4)</f>
         <v/>
       </c>
       <c r="G7" s="23">
-        <f>SUM(G5:G6)</f>
+        <f>SUM(Rev_Segment1_Y5,Rev_Segment2_Y5)</f>
         <v/>
       </c>
     </row>
@@ -2386,27 +2429,27 @@
         </is>
       </c>
       <c r="B13" s="28">
-        <f>SUM(B10:B12)</f>
+        <f>SUM(OPEX_SM_Y0,OPEX_RD_Y0,OPEX_GA_Y0)</f>
         <v/>
       </c>
       <c r="C13" s="28">
-        <f>SUM(C10:C12)</f>
+        <f>SUM(OPEX_SM_Y1,OPEX_RD_Y1,OPEX_GA_Y1)</f>
         <v/>
       </c>
       <c r="D13" s="28">
-        <f>SUM(D10:D12)</f>
+        <f>SUM(OPEX_SM_Y2,OPEX_RD_Y2,OPEX_GA_Y2)</f>
         <v/>
       </c>
       <c r="E13" s="28">
-        <f>SUM(E10:E12)</f>
+        <f>SUM(OPEX_SM_Y3,OPEX_RD_Y3,OPEX_GA_Y3)</f>
         <v/>
       </c>
       <c r="F13" s="28">
-        <f>SUM(F10:F12)</f>
+        <f>SUM(OPEX_SM_Y4,OPEX_RD_Y4,OPEX_GA_Y4)</f>
         <v/>
       </c>
       <c r="G13" s="28">
-        <f>SUM(G10:G12)</f>
+        <f>SUM(OPEX_SM_Y5,OPEX_RD_Y5,OPEX_GA_Y5)</f>
         <v/>
       </c>
       <c r="H13" s="9">
